--- a/Docs To Test/Docs To Test/Integration Test.xlsx
+++ b/Docs To Test/Docs To Test/Integration Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Module</t>
   </si>
@@ -40,6 +40,48 @@
   </si>
   <si>
     <t>Closure date</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>Create Lost</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>Manage Admins</t>
+  </si>
+  <si>
+    <t>New method needed</t>
+  </si>
+  <si>
+    <t>Manage Losts</t>
+  </si>
+  <si>
+    <t>Not completed</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Search Losts</t>
+  </si>
+  <si>
+    <t>Create FoundEntry</t>
+  </si>
+  <si>
+    <t>Load page with  entries of both Found and NotFound status</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>The data type of lostentry must be changeto string</t>
   </si>
 </sst>
 </file>
@@ -107,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -119,6 +161,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -415,16 +460,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
@@ -459,7 +504,108 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1"/>
+    <row r="2" spans="1:8" ht="18" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4">
+        <v>41696</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>41695</v>
+      </c>
+      <c r="G3" s="5">
+        <v>41695</v>
+      </c>
+      <c r="H3" s="5">
+        <v>41695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>41695</v>
+      </c>
+      <c r="G4" s="5">
+        <v>41695</v>
+      </c>
+      <c r="H4" s="5">
+        <v>41695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4">
+        <v>41695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>41695</v>
+      </c>
+      <c r="G6" s="5">
+        <v>41695</v>
+      </c>
+      <c r="H6" s="5">
+        <v>41695</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs To Test/Docs To Test/Integration Test.xlsx
+++ b/Docs To Test/Docs To Test/Integration Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Module</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Closure date</t>
   </si>
   <si>
-    <t>close</t>
-  </si>
-  <si>
     <t>Create Lost</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>The data type of lostentry must be changeto string</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>Notfixed</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -506,19 +509,19 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4">
         <v>41696</v>
@@ -528,13 +531,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F3" s="4">
         <v>41695</v>
@@ -548,13 +557,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4">
         <v>41695</v>
@@ -568,13 +583,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4">
         <v>41695</v>
@@ -582,19 +603,19 @@
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4">
         <v>41695</v>

--- a/Docs To Test/Docs To Test/Integration Test.xlsx
+++ b/Docs To Test/Docs To Test/Integration Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Module</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Manage Losts</t>
   </si>
   <si>
-    <t>Not completed</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Search Losts</t>
   </si>
   <si>
@@ -82,6 +76,18 @@
   </si>
   <si>
     <t>fixed</t>
+  </si>
+  <si>
+    <t>UpdateAdmin</t>
+  </si>
+  <si>
+    <t>If there is no results for the typed search values</t>
+  </si>
+  <si>
+    <t>If the user clicked save button moe than once will update again even if no change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to prevent user click save more than once for same lost </t>
   </si>
   <si>
     <t>Notfixed</t>
@@ -152,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -167,6 +173,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -463,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -512,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -521,13 +530,17 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2" s="4">
         <v>41696</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="5">
+        <v>41702</v>
+      </c>
+      <c r="H2" s="5">
+        <v>41702</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -537,13 +550,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4">
         <v>41695</v>
@@ -563,13 +576,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4">
         <v>41695</v>
@@ -581,51 +594,105 @@
         <v>41695</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4">
+        <v>41695</v>
+      </c>
+      <c r="G5" s="5">
+        <v>41695</v>
+      </c>
+      <c r="H5" s="5">
         <v>41695</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4">
+        <v>41703</v>
+      </c>
+      <c r="G6" s="6">
+        <v>41703</v>
+      </c>
+      <c r="H6" s="6">
+        <v>41703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4">
+        <v>41703</v>
+      </c>
+      <c r="G7" s="6">
+        <v>41703</v>
+      </c>
+      <c r="H7" s="6">
+        <v>41703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4">
-        <v>41695</v>
-      </c>
-      <c r="G6" s="5">
-        <v>41695</v>
-      </c>
-      <c r="H6" s="5">
-        <v>41695</v>
-      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4">
+        <v>41703</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs To Test/Docs To Test/Integration Test.xlsx
+++ b/Docs To Test/Docs To Test/Integration Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Module</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t xml:space="preserve">Need to prevent user click save more than once for same lost </t>
-  </si>
-  <si>
-    <t>Notfixed</t>
   </si>
 </sst>
 </file>
@@ -474,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -686,13 +683,17 @@
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4">
         <v>41703</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="6">
+        <v>41704</v>
+      </c>
+      <c r="H8" s="6">
+        <v>41704</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
